--- a/data/annotations/new_annotation_structure_out/iteration_7/iteration_7_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_7/iteration_7_mistral-large-2411-3.xlsx
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>1</v>
@@ -4093,10 +4093,10 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -4270,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -6358,7 +6358,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -6367,16 +6367,16 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -7759,7 +7759,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
